--- a/Data/Distribution of fans in Subcarpathian Voivodship/data.xlsx
+++ b/Data/Distribution of fans in Subcarpathian Voivodship/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\subcarpathia-fans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\kibicowskie-mapy\subcarpathia-fans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817D535A-45BC-4B0B-AEA1-4F28600F1C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90ABA6-143F-4714-8FA4-2AC379A2447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stal R." sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="142">
   <si>
     <t>Biggest city with no FC</t>
   </si>
@@ -480,12 +480,15 @@
   <si>
     <t>Lubaczów (12 000)</t>
   </si>
+  <si>
+    <t>USA (Emigracja)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +665,16 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -909,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,6 +1043,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="1" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -9277,8 +9293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349A9B5C-E4C3-4429-8211-09E4DAAA9183}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9354,8 +9370,8 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>70</v>
+      <c r="A5" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -9374,7 +9390,9 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -10958,6 +10976,7 @@
       <c r="P93" s="2"/>
     </row>
     <row r="94" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -11247,8 +11266,8 @@
       <c r="P111" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
-    <sortCondition ref="A5"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+    <sortCondition ref="A3:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -27073,7 +27092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABC4BA-FF7B-4334-BC25-D9FDDC12D341}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -27362,7 +27381,7 @@
       </c>
       <c r="B16" s="5">
         <f>COUNTA('Stal M.'!A:A) - 1</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="5">
         <v>4</v>
